--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3078.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3078.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.104596188571509</v>
+        <v>1.287196755409241</v>
       </c>
       <c r="B1">
-        <v>2.374436559110586</v>
+        <v>2.152289390563965</v>
       </c>
       <c r="C1">
-        <v>4.679486551728846</v>
+        <v>4.790530204772949</v>
       </c>
       <c r="D1">
-        <v>3.273741668196356</v>
+        <v>3.275928497314453</v>
       </c>
       <c r="E1">
-        <v>1.292199070122178</v>
+        <v>1.358094811439514</v>
       </c>
     </row>
   </sheetData>
